--- a/T1.xlsx
+++ b/T1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Desktop\Questions\MCQ ggenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Desktop\Questions\MCQ ggenerator - Copy (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41586242-42B0-4FC9-AB76-AD506AD066CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F42547-0BCB-44A2-9BD6-6ED58AEB78B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7A0B5B63-34D5-48C3-845D-CEB04A106E87}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="T1, T2, T3" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T1, T2, T3'!$A$1:$R$389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'T1, T2, T3'!$A$1:$AC$389</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4957,7 +4957,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4980,22 +4980,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5012,7 +5001,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5352,28 +5340,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D3818D-47CE-41E6-8913-CED8EE4E3F8A}">
   <dimension ref="A1:AC389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="74.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="74.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="74.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="48.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="46.21875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="35.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="74.88671875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="21.77734375" customWidth="1"/>
     <col min="18" max="18" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.21875" bestFit="1" customWidth="1"/>
@@ -5521,7 +5509,7 @@
       <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="2"/>
@@ -5582,7 +5570,7 @@
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="2"/>
@@ -5643,7 +5631,7 @@
       <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s">
         <v>31</v>
       </c>
       <c r="S4" s="2"/>
@@ -5704,7 +5692,7 @@
       <c r="Q5" s="2">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" t="s">
         <v>31</v>
       </c>
       <c r="S5" s="2"/>
@@ -5765,7 +5753,7 @@
       <c r="Q6" s="2">
         <v>1</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="2"/>
@@ -5826,7 +5814,7 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" t="s">
         <v>31</v>
       </c>
       <c r="S7" s="2"/>
@@ -5887,7 +5875,7 @@
       <c r="Q8" s="2">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" t="s">
         <v>31</v>
       </c>
       <c r="S8" s="2"/>
@@ -5948,7 +5936,7 @@
       <c r="Q9" s="2">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" t="s">
         <v>31</v>
       </c>
       <c r="S9" s="2"/>
@@ -6009,7 +5997,7 @@
       <c r="Q10" s="2">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" t="s">
         <v>31</v>
       </c>
       <c r="S10" s="2"/>
@@ -6070,7 +6058,7 @@
       <c r="Q11" s="2">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="2"/>
@@ -6131,7 +6119,7 @@
       <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" t="s">
         <v>31</v>
       </c>
       <c r="S12" s="2"/>
@@ -6192,7 +6180,7 @@
       <c r="Q13" s="2">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" t="s">
         <v>31</v>
       </c>
       <c r="S13" s="2"/>
@@ -6207,7 +6195,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="6" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6253,7 +6241,7 @@
       <c r="Q14" s="2">
         <v>1</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" t="s">
         <v>31</v>
       </c>
       <c r="S14" s="4"/>
@@ -6314,7 +6302,7 @@
       <c r="Q15" s="2">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="2"/>
@@ -6375,7 +6363,7 @@
       <c r="Q16" s="2">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" t="s">
         <v>31</v>
       </c>
       <c r="S16" s="2"/>
@@ -6436,7 +6424,7 @@
       <c r="Q17" s="2">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" t="s">
         <v>31</v>
       </c>
       <c r="S17" s="2"/>
@@ -6497,7 +6485,7 @@
       <c r="Q18" s="2">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" t="s">
         <v>31</v>
       </c>
       <c r="S18" s="2"/>
@@ -6512,7 +6500,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" s="6" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="6" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6558,7 +6546,7 @@
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="R19" t="s">
         <v>31</v>
       </c>
       <c r="S19" s="4"/>
@@ -6619,7 +6607,7 @@
       <c r="Q20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" t="s">
         <v>31</v>
       </c>
       <c r="S20" s="2"/>
@@ -6634,7 +6622,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="6" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6680,7 +6668,7 @@
       <c r="Q21" s="2">
         <v>1</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="R21" t="s">
         <v>31</v>
       </c>
       <c r="S21" s="4"/>
@@ -6741,7 +6729,7 @@
       <c r="Q22" s="2">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" t="s">
         <v>31</v>
       </c>
       <c r="S22" s="2"/>
@@ -6802,7 +6790,7 @@
       <c r="Q23" s="2">
         <v>1</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" t="s">
         <v>31</v>
       </c>
       <c r="S23" s="2"/>
@@ -6863,7 +6851,7 @@
       <c r="Q24" s="2">
         <v>1</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" t="s">
         <v>31</v>
       </c>
       <c r="S24" s="2"/>
@@ -6878,7 +6866,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" s="6" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="6" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6924,7 +6912,7 @@
       <c r="Q25" s="2">
         <v>1</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="R25" t="s">
         <v>31</v>
       </c>
       <c r="S25" s="4"/>
@@ -6985,7 +6973,7 @@
       <c r="Q26" s="2">
         <v>1</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" t="s">
         <v>31</v>
       </c>
       <c r="S26" s="2"/>
@@ -7046,7 +7034,7 @@
       <c r="Q27" s="2">
         <v>1</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="2"/>
@@ -7107,7 +7095,7 @@
       <c r="Q28" s="2">
         <v>1</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" t="s">
         <v>28</v>
       </c>
       <c r="S28" s="2"/>
@@ -7168,7 +7156,7 @@
       <c r="Q29" s="2">
         <v>1</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" t="s">
         <v>31</v>
       </c>
       <c r="S29" s="2"/>
@@ -7229,7 +7217,7 @@
       <c r="Q30" s="2">
         <v>1</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" t="s">
         <v>31</v>
       </c>
       <c r="S30" s="2"/>
@@ -7290,7 +7278,7 @@
       <c r="Q31" s="2">
         <v>1</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" t="s">
         <v>31</v>
       </c>
       <c r="S31" s="2"/>
@@ -7351,7 +7339,7 @@
       <c r="Q32" s="2">
         <v>1</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" t="s">
         <v>31</v>
       </c>
       <c r="S32" s="2"/>
@@ -7412,7 +7400,7 @@
       <c r="Q33" s="2">
         <v>1</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" t="s">
         <v>31</v>
       </c>
       <c r="S33" s="2"/>
@@ -7473,7 +7461,7 @@
       <c r="Q34" s="2">
         <v>1</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="R34" t="s">
         <v>31</v>
       </c>
       <c r="S34" s="2"/>
@@ -7534,7 +7522,7 @@
       <c r="Q35" s="2">
         <v>1</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" t="s">
         <v>31</v>
       </c>
       <c r="S35" s="2"/>
@@ -7595,7 +7583,7 @@
       <c r="Q36" s="2">
         <v>1</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" t="s">
         <v>31</v>
       </c>
       <c r="S36" s="2"/>
@@ -7656,7 +7644,7 @@
       <c r="Q37" s="2">
         <v>1</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" t="s">
         <v>28</v>
       </c>
       <c r="S37" s="2"/>
@@ -7717,7 +7705,7 @@
       <c r="Q38" s="2">
         <v>1</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" t="s">
         <v>31</v>
       </c>
       <c r="S38" s="2"/>
@@ -7778,8 +7766,8 @@
       <c r="Q39" s="2">
         <v>1</v>
       </c>
-      <c r="R39" s="2" t="s">
-        <v>28</v>
+      <c r="R39" t="s">
+        <v>31</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -7839,7 +7827,7 @@
       <c r="Q40" s="2">
         <v>1</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" t="s">
         <v>31</v>
       </c>
       <c r="S40" s="2"/>
@@ -7900,7 +7888,7 @@
       <c r="Q41" s="2">
         <v>1</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" t="s">
         <v>31</v>
       </c>
       <c r="S41" s="2"/>
@@ -7961,7 +7949,7 @@
       <c r="Q42" s="2">
         <v>1</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" t="s">
         <v>31</v>
       </c>
       <c r="S42" s="2"/>
@@ -8022,7 +8010,7 @@
       <c r="Q43" s="2">
         <v>1</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" t="s">
         <v>31</v>
       </c>
       <c r="S43" s="2"/>
@@ -8083,7 +8071,7 @@
       <c r="Q44" s="2">
         <v>1</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R44" t="s">
         <v>31</v>
       </c>
       <c r="S44" s="2"/>
@@ -8144,7 +8132,7 @@
       <c r="Q45" s="2">
         <v>1</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R45" t="s">
         <v>31</v>
       </c>
       <c r="S45" s="2"/>
@@ -8205,7 +8193,7 @@
       <c r="Q46" s="2">
         <v>1</v>
       </c>
-      <c r="R46" s="2" t="s">
+      <c r="R46" t="s">
         <v>31</v>
       </c>
       <c r="S46" s="2"/>
@@ -8266,8 +8254,8 @@
       <c r="Q47" s="2">
         <v>1</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>28</v>
+      <c r="R47" t="s">
+        <v>31</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -8327,7 +8315,7 @@
       <c r="Q48" s="2">
         <v>1</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="R48" t="s">
         <v>31</v>
       </c>
       <c r="S48" s="2"/>
@@ -8388,7 +8376,7 @@
       <c r="Q49" s="2">
         <v>1</v>
       </c>
-      <c r="R49" s="2" t="s">
+      <c r="R49" t="s">
         <v>31</v>
       </c>
       <c r="S49" s="2"/>
@@ -8449,8 +8437,8 @@
       <c r="Q50" s="2">
         <v>1</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>31</v>
+      <c r="R50" t="s">
+        <v>28</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -8510,7 +8498,7 @@
       <c r="Q51" s="2">
         <v>1</v>
       </c>
-      <c r="R51" s="2" t="s">
+      <c r="R51" t="s">
         <v>31</v>
       </c>
       <c r="S51" s="2"/>
@@ -8571,7 +8559,7 @@
       <c r="Q52" s="2">
         <v>1</v>
       </c>
-      <c r="R52" s="2" t="s">
+      <c r="R52" t="s">
         <v>31</v>
       </c>
       <c r="S52" s="2"/>
@@ -8632,7 +8620,7 @@
       <c r="Q53" s="2">
         <v>1</v>
       </c>
-      <c r="R53" s="2" t="s">
+      <c r="R53" t="s">
         <v>31</v>
       </c>
       <c r="S53" s="2"/>
@@ -8693,7 +8681,7 @@
       <c r="Q54" s="2">
         <v>1</v>
       </c>
-      <c r="R54" s="2" t="s">
+      <c r="R54" t="s">
         <v>31</v>
       </c>
       <c r="S54" s="2"/>
@@ -8754,7 +8742,7 @@
       <c r="Q55" s="2">
         <v>1</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="R55" t="s">
         <v>31</v>
       </c>
       <c r="S55" s="2"/>
@@ -8815,7 +8803,7 @@
       <c r="Q56" s="2">
         <v>1</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" t="s">
         <v>28</v>
       </c>
       <c r="S56" s="2"/>
@@ -8876,8 +8864,8 @@
       <c r="Q57" s="2">
         <v>1</v>
       </c>
-      <c r="R57" s="2" t="s">
-        <v>31</v>
+      <c r="R57" t="s">
+        <v>28</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -8937,7 +8925,7 @@
       <c r="Q58" s="2">
         <v>1</v>
       </c>
-      <c r="R58" s="2" t="s">
+      <c r="R58" t="s">
         <v>28</v>
       </c>
       <c r="S58" s="2"/>
@@ -8998,7 +8986,7 @@
       <c r="Q59" s="2">
         <v>1</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="R59" t="s">
         <v>28</v>
       </c>
       <c r="S59" s="2"/>
@@ -9059,8 +9047,8 @@
       <c r="Q60" s="2">
         <v>1</v>
       </c>
-      <c r="R60" s="2" t="s">
-        <v>31</v>
+      <c r="R60" t="s">
+        <v>28</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -9120,8 +9108,8 @@
       <c r="Q61" s="2">
         <v>1</v>
       </c>
-      <c r="R61" s="2" t="s">
-        <v>31</v>
+      <c r="R61" t="s">
+        <v>28</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -9181,7 +9169,7 @@
       <c r="Q62" s="2">
         <v>1</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="R62" t="s">
         <v>28</v>
       </c>
       <c r="S62" s="2"/>
@@ -9242,8 +9230,8 @@
       <c r="Q63" s="2">
         <v>1</v>
       </c>
-      <c r="R63" s="2" t="s">
-        <v>31</v>
+      <c r="R63" t="s">
+        <v>28</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -9303,7 +9291,7 @@
       <c r="Q64" s="2">
         <v>1</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="R64" t="s">
         <v>31</v>
       </c>
       <c r="S64" s="2"/>
@@ -9364,8 +9352,8 @@
       <c r="Q65" s="2">
         <v>1</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>31</v>
+      <c r="R65" t="s">
+        <v>28</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -9425,8 +9413,8 @@
       <c r="Q66" s="2">
         <v>1</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>31</v>
+      <c r="R66" t="s">
+        <v>28</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -9486,8 +9474,8 @@
       <c r="Q67" s="2">
         <v>1</v>
       </c>
-      <c r="R67" s="2" t="s">
-        <v>31</v>
+      <c r="R67" t="s">
+        <v>28</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -9547,8 +9535,8 @@
       <c r="Q68" s="2">
         <v>1</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>31</v>
+      <c r="R68" t="s">
+        <v>28</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -9608,8 +9596,8 @@
       <c r="Q69" s="2">
         <v>1</v>
       </c>
-      <c r="R69" s="2" t="s">
-        <v>31</v>
+      <c r="R69" t="s">
+        <v>28</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
@@ -9669,8 +9657,8 @@
       <c r="Q70" s="2">
         <v>1</v>
       </c>
-      <c r="R70" s="2" t="s">
-        <v>31</v>
+      <c r="R70" t="s">
+        <v>28</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
@@ -9730,8 +9718,8 @@
       <c r="Q71" s="2">
         <v>1</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>31</v>
+      <c r="R71" t="s">
+        <v>28</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
@@ -9791,8 +9779,8 @@
       <c r="Q72" s="2">
         <v>1</v>
       </c>
-      <c r="R72" s="2" t="s">
-        <v>31</v>
+      <c r="R72" t="s">
+        <v>28</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
@@ -9852,7 +9840,7 @@
       <c r="Q73" s="2">
         <v>1</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R73" t="s">
         <v>28</v>
       </c>
       <c r="S73" s="2"/>
@@ -9913,8 +9901,8 @@
       <c r="Q74" s="2">
         <v>1</v>
       </c>
-      <c r="R74" s="2" t="s">
-        <v>28</v>
+      <c r="R74" t="s">
+        <v>33</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
@@ -9974,8 +9962,8 @@
       <c r="Q75" s="2">
         <v>1</v>
       </c>
-      <c r="R75" s="2" t="s">
-        <v>31</v>
+      <c r="R75" t="s">
+        <v>28</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
@@ -10035,7 +10023,7 @@
       <c r="Q76" s="2">
         <v>1</v>
       </c>
-      <c r="R76" s="2" t="s">
+      <c r="R76" t="s">
         <v>31</v>
       </c>
       <c r="S76" s="2"/>
@@ -10096,7 +10084,7 @@
       <c r="Q77" s="2">
         <v>1</v>
       </c>
-      <c r="R77" s="8" t="s">
+      <c r="R77" t="s">
         <v>31</v>
       </c>
       <c r="S77" s="2"/>
@@ -10157,7 +10145,7 @@
       <c r="Q78" s="2">
         <v>1</v>
       </c>
-      <c r="R78" s="2" t="s">
+      <c r="R78" t="s">
         <v>31</v>
       </c>
       <c r="S78" s="2"/>
@@ -10218,7 +10206,7 @@
       <c r="Q79" s="2">
         <v>1</v>
       </c>
-      <c r="R79" s="2" t="s">
+      <c r="R79" t="s">
         <v>31</v>
       </c>
       <c r="S79" s="2"/>
@@ -10279,7 +10267,7 @@
       <c r="Q80" s="2">
         <v>1</v>
       </c>
-      <c r="R80" s="2" t="s">
+      <c r="R80" t="s">
         <v>31</v>
       </c>
       <c r="S80" s="2"/>
@@ -10340,8 +10328,8 @@
       <c r="Q81" s="2">
         <v>1</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>31</v>
+      <c r="R81" t="s">
+        <v>28</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
@@ -10401,7 +10389,7 @@
       <c r="Q82" s="2">
         <v>1</v>
       </c>
-      <c r="R82" s="2" t="s">
+      <c r="R82" t="s">
         <v>31</v>
       </c>
       <c r="S82" s="2"/>
@@ -10462,8 +10450,8 @@
       <c r="Q83" s="2">
         <v>1</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>31</v>
+      <c r="R83" t="s">
+        <v>28</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -10523,8 +10511,8 @@
       <c r="Q84" s="2">
         <v>1</v>
       </c>
-      <c r="R84" s="2" t="s">
-        <v>31</v>
+      <c r="R84" t="s">
+        <v>28</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
@@ -10584,8 +10572,8 @@
       <c r="Q85" s="2">
         <v>1</v>
       </c>
-      <c r="R85" s="2" t="s">
-        <v>31</v>
+      <c r="R85" t="s">
+        <v>28</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
@@ -10645,8 +10633,8 @@
       <c r="Q86" s="2">
         <v>1</v>
       </c>
-      <c r="R86" s="2" t="s">
-        <v>31</v>
+      <c r="R86" t="s">
+        <v>28</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
@@ -10706,8 +10694,8 @@
       <c r="Q87" s="2">
         <v>1</v>
       </c>
-      <c r="R87" s="2" t="s">
-        <v>31</v>
+      <c r="R87" t="s">
+        <v>28</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
@@ -10747,13 +10735,13 @@
       <c r="I88" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="K88" s="9" t="s">
+      <c r="K88" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="L88" s="9" t="s">
+      <c r="L88" s="8" t="s">
         <v>1380</v>
       </c>
       <c r="M88" s="2" t="s">
@@ -10767,7 +10755,7 @@
       <c r="Q88" s="2">
         <v>1</v>
       </c>
-      <c r="R88" s="2" t="s">
+      <c r="R88" t="s">
         <v>31</v>
       </c>
       <c r="S88" s="2"/>
@@ -10828,8 +10816,8 @@
       <c r="Q89" s="2">
         <v>1</v>
       </c>
-      <c r="R89" s="2" t="s">
-        <v>31</v>
+      <c r="R89" t="s">
+        <v>28</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
@@ -10889,8 +10877,8 @@
       <c r="Q90" s="2">
         <v>1</v>
       </c>
-      <c r="R90" s="2" t="s">
-        <v>31</v>
+      <c r="R90" t="s">
+        <v>28</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
@@ -10950,7 +10938,7 @@
       <c r="Q91" s="2">
         <v>1</v>
       </c>
-      <c r="R91" s="2" t="s">
+      <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" s="2"/>
@@ -11011,7 +10999,7 @@
       <c r="Q92" s="2">
         <v>1</v>
       </c>
-      <c r="R92" s="2" t="s">
+      <c r="R92" t="s">
         <v>31</v>
       </c>
       <c r="S92" s="2"/>
@@ -11072,8 +11060,8 @@
       <c r="Q93" s="2">
         <v>1</v>
       </c>
-      <c r="R93" s="2" t="s">
-        <v>28</v>
+      <c r="R93" t="s">
+        <v>33</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -11133,8 +11121,8 @@
       <c r="Q94" s="2">
         <v>1</v>
       </c>
-      <c r="R94" s="2" t="s">
-        <v>31</v>
+      <c r="R94" t="s">
+        <v>28</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
@@ -11194,8 +11182,8 @@
       <c r="Q95" s="2">
         <v>1</v>
       </c>
-      <c r="R95" s="2" t="s">
-        <v>31</v>
+      <c r="R95" t="s">
+        <v>28</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
@@ -11255,8 +11243,8 @@
       <c r="Q96" s="2">
         <v>1</v>
       </c>
-      <c r="R96" s="2" t="s">
-        <v>31</v>
+      <c r="R96" t="s">
+        <v>33</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
@@ -11316,8 +11304,8 @@
       <c r="Q97" s="2">
         <v>1</v>
       </c>
-      <c r="R97" s="2" t="s">
-        <v>31</v>
+      <c r="R97" t="s">
+        <v>33</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
@@ -11377,8 +11365,8 @@
       <c r="Q98" s="2">
         <v>1</v>
       </c>
-      <c r="R98" s="2" t="s">
-        <v>31</v>
+      <c r="R98" t="s">
+        <v>28</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
@@ -11438,8 +11426,8 @@
       <c r="Q99" s="2">
         <v>1</v>
       </c>
-      <c r="R99" s="2" t="s">
-        <v>31</v>
+      <c r="R99" t="s">
+        <v>28</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -11499,8 +11487,8 @@
       <c r="Q100" s="2">
         <v>1</v>
       </c>
-      <c r="R100" s="2" t="s">
-        <v>31</v>
+      <c r="R100" t="s">
+        <v>28</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
@@ -11560,8 +11548,8 @@
       <c r="Q101" s="2">
         <v>1</v>
       </c>
-      <c r="R101" s="2" t="s">
-        <v>31</v>
+      <c r="R101" t="s">
+        <v>28</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
@@ -11621,8 +11609,8 @@
       <c r="Q102" s="2">
         <v>1</v>
       </c>
-      <c r="R102" s="2" t="s">
-        <v>31</v>
+      <c r="R102" t="s">
+        <v>28</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
@@ -11682,8 +11670,8 @@
       <c r="Q103" s="2">
         <v>1</v>
       </c>
-      <c r="R103" s="2" t="s">
-        <v>31</v>
+      <c r="R103" t="s">
+        <v>28</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -11743,8 +11731,8 @@
       <c r="Q104" s="2">
         <v>1</v>
       </c>
-      <c r="R104" s="2" t="s">
-        <v>31</v>
+      <c r="R104" t="s">
+        <v>28</v>
       </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
@@ -11804,8 +11792,8 @@
       <c r="Q105" s="2">
         <v>1</v>
       </c>
-      <c r="R105" s="2" t="s">
-        <v>28</v>
+      <c r="R105" t="s">
+        <v>33</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
@@ -11865,8 +11853,8 @@
       <c r="Q106" s="2">
         <v>1</v>
       </c>
-      <c r="R106" s="2" t="s">
-        <v>28</v>
+      <c r="R106" t="s">
+        <v>33</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
@@ -11926,8 +11914,8 @@
       <c r="Q107" s="2">
         <v>1</v>
       </c>
-      <c r="R107" s="2" t="s">
-        <v>31</v>
+      <c r="R107" t="s">
+        <v>28</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
@@ -11987,8 +11975,8 @@
       <c r="Q108" s="2">
         <v>1</v>
       </c>
-      <c r="R108" s="2" t="s">
-        <v>28</v>
+      <c r="R108" t="s">
+        <v>33</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
@@ -12048,8 +12036,8 @@
       <c r="Q109" s="2">
         <v>1</v>
       </c>
-      <c r="R109" s="2" t="s">
-        <v>28</v>
+      <c r="R109" t="s">
+        <v>33</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
@@ -12109,8 +12097,8 @@
       <c r="Q110" s="2">
         <v>1</v>
       </c>
-      <c r="R110" s="2" t="s">
-        <v>31</v>
+      <c r="R110" t="s">
+        <v>28</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
@@ -12170,8 +12158,8 @@
       <c r="Q111" s="2">
         <v>1</v>
       </c>
-      <c r="R111" s="2" t="s">
-        <v>28</v>
+      <c r="R111" t="s">
+        <v>33</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -12231,8 +12219,8 @@
       <c r="Q112" s="2">
         <v>1</v>
       </c>
-      <c r="R112" s="2" t="s">
-        <v>28</v>
+      <c r="R112" t="s">
+        <v>33</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -12292,8 +12280,8 @@
       <c r="Q113" s="2">
         <v>1</v>
       </c>
-      <c r="R113" s="2" t="s">
-        <v>28</v>
+      <c r="R113" t="s">
+        <v>33</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -12353,8 +12341,8 @@
       <c r="Q114" s="2">
         <v>1</v>
       </c>
-      <c r="R114" s="2" t="s">
-        <v>31</v>
+      <c r="R114" t="s">
+        <v>33</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -12414,8 +12402,8 @@
       <c r="Q115" s="2">
         <v>1</v>
       </c>
-      <c r="R115" s="2" t="s">
-        <v>31</v>
+      <c r="R115" t="s">
+        <v>28</v>
       </c>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -12475,8 +12463,8 @@
       <c r="Q116" s="2">
         <v>1</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>31</v>
+      <c r="R116" t="s">
+        <v>33</v>
       </c>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
@@ -12536,8 +12524,8 @@
       <c r="Q117" s="2">
         <v>1</v>
       </c>
-      <c r="R117" s="2" t="s">
-        <v>31</v>
+      <c r="R117" t="s">
+        <v>28</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
@@ -12597,8 +12585,8 @@
       <c r="Q118" s="2">
         <v>1</v>
       </c>
-      <c r="R118" s="2" t="s">
-        <v>31</v>
+      <c r="R118" t="s">
+        <v>33</v>
       </c>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
@@ -12658,8 +12646,8 @@
       <c r="Q119" s="2">
         <v>1</v>
       </c>
-      <c r="R119" s="2" t="s">
-        <v>31</v>
+      <c r="R119" t="s">
+        <v>28</v>
       </c>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
@@ -12719,7 +12707,7 @@
       <c r="Q120" s="2">
         <v>2</v>
       </c>
-      <c r="R120" s="2" t="s">
+      <c r="R120" t="s">
         <v>31</v>
       </c>
       <c r="S120" s="2"/>
@@ -12780,7 +12768,7 @@
       <c r="Q121" s="2">
         <v>2</v>
       </c>
-      <c r="R121" s="2" t="s">
+      <c r="R121" t="s">
         <v>31</v>
       </c>
       <c r="S121" s="2"/>
@@ -12841,7 +12829,7 @@
       <c r="Q122" s="2">
         <v>2</v>
       </c>
-      <c r="R122" s="2" t="s">
+      <c r="R122" t="s">
         <v>28</v>
       </c>
       <c r="S122" s="2"/>
@@ -12902,7 +12890,7 @@
       <c r="Q123" s="2">
         <v>2</v>
       </c>
-      <c r="R123" s="2" t="s">
+      <c r="R123" t="s">
         <v>31</v>
       </c>
       <c r="S123" s="2"/>
@@ -12963,7 +12951,7 @@
       <c r="Q124" s="2">
         <v>2</v>
       </c>
-      <c r="R124" s="2" t="s">
+      <c r="R124" t="s">
         <v>31</v>
       </c>
       <c r="S124" s="2"/>
@@ -13024,7 +13012,7 @@
       <c r="Q125" s="2">
         <v>2</v>
       </c>
-      <c r="R125" s="2" t="s">
+      <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" s="2"/>
@@ -13085,7 +13073,7 @@
       <c r="Q126" s="2">
         <v>2</v>
       </c>
-      <c r="R126" s="2" t="s">
+      <c r="R126" t="s">
         <v>31</v>
       </c>
       <c r="S126" s="2"/>
@@ -13146,7 +13134,7 @@
       <c r="Q127" s="2">
         <v>2</v>
       </c>
-      <c r="R127" s="2" t="s">
+      <c r="R127" t="s">
         <v>28</v>
       </c>
       <c r="S127" s="2"/>
@@ -13207,7 +13195,7 @@
       <c r="Q128" s="2">
         <v>2</v>
       </c>
-      <c r="R128" s="2" t="s">
+      <c r="R128" t="s">
         <v>28</v>
       </c>
       <c r="S128" s="2"/>
@@ -13268,7 +13256,7 @@
       <c r="Q129" s="2">
         <v>2</v>
       </c>
-      <c r="R129" s="2" t="s">
+      <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" s="2"/>
@@ -13329,7 +13317,7 @@
       <c r="Q130" s="2">
         <v>2</v>
       </c>
-      <c r="R130" s="2" t="s">
+      <c r="R130" t="s">
         <v>28</v>
       </c>
       <c r="S130" s="2"/>
@@ -13390,7 +13378,7 @@
       <c r="Q131" s="2">
         <v>2</v>
       </c>
-      <c r="R131" s="2" t="s">
+      <c r="R131" t="s">
         <v>28</v>
       </c>
       <c r="S131" s="2"/>
@@ -13451,7 +13439,7 @@
       <c r="Q132" s="2">
         <v>2</v>
       </c>
-      <c r="R132" s="2" t="s">
+      <c r="R132" t="s">
         <v>33</v>
       </c>
       <c r="S132" s="2"/>
@@ -13512,8 +13500,8 @@
       <c r="Q133" s="2">
         <v>2</v>
       </c>
-      <c r="R133" s="2" t="s">
-        <v>28</v>
+      <c r="R133" t="s">
+        <v>33</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -13573,8 +13561,8 @@
       <c r="Q134" s="2">
         <v>2</v>
       </c>
-      <c r="R134" s="2" t="s">
-        <v>31</v>
+      <c r="R134" t="s">
+        <v>28</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -13634,7 +13622,7 @@
       <c r="Q135" s="2">
         <v>2</v>
       </c>
-      <c r="R135" s="2" t="s">
+      <c r="R135" t="s">
         <v>28</v>
       </c>
       <c r="S135" s="2"/>
@@ -13695,7 +13683,7 @@
       <c r="Q136" s="2">
         <v>2</v>
       </c>
-      <c r="R136" s="2" t="s">
+      <c r="R136" t="s">
         <v>28</v>
       </c>
       <c r="S136" s="2"/>
@@ -13756,7 +13744,7 @@
       <c r="Q137" s="2">
         <v>2</v>
       </c>
-      <c r="R137" s="2" t="s">
+      <c r="R137" t="s">
         <v>28</v>
       </c>
       <c r="S137" s="2"/>
@@ -13817,8 +13805,8 @@
       <c r="Q138" s="2">
         <v>2</v>
       </c>
-      <c r="R138" s="2" t="s">
-        <v>28</v>
+      <c r="R138" t="s">
+        <v>33</v>
       </c>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
@@ -13878,8 +13866,8 @@
       <c r="Q139" s="2">
         <v>2</v>
       </c>
-      <c r="R139" s="2" t="s">
-        <v>28</v>
+      <c r="R139" t="s">
+        <v>33</v>
       </c>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
@@ -13939,7 +13927,7 @@
       <c r="Q140" s="2">
         <v>2</v>
       </c>
-      <c r="R140" s="2" t="s">
+      <c r="R140" t="s">
         <v>33</v>
       </c>
       <c r="S140" s="2"/>
@@ -14000,7 +13988,7 @@
       <c r="Q141" s="2">
         <v>2</v>
       </c>
-      <c r="R141" s="2" t="s">
+      <c r="R141" t="s">
         <v>28</v>
       </c>
       <c r="S141" s="2"/>
@@ -14061,7 +14049,7 @@
       <c r="Q142" s="2">
         <v>2</v>
       </c>
-      <c r="R142" s="2" t="s">
+      <c r="R142" t="s">
         <v>33</v>
       </c>
       <c r="S142" s="2"/>
@@ -14122,7 +14110,7 @@
       <c r="Q143" s="2">
         <v>2</v>
       </c>
-      <c r="R143" s="2" t="s">
+      <c r="R143" t="s">
         <v>28</v>
       </c>
       <c r="S143" s="2"/>
@@ -14183,7 +14171,7 @@
       <c r="Q144" s="2">
         <v>2</v>
       </c>
-      <c r="R144" s="2" t="s">
+      <c r="R144" t="s">
         <v>31</v>
       </c>
       <c r="S144" s="2"/>
@@ -14244,7 +14232,7 @@
       <c r="Q145" s="2">
         <v>2</v>
       </c>
-      <c r="R145" s="2" t="s">
+      <c r="R145" t="s">
         <v>31</v>
       </c>
       <c r="S145" s="2"/>
@@ -14305,7 +14293,7 @@
       <c r="Q146" s="2">
         <v>2</v>
       </c>
-      <c r="R146" s="2" t="s">
+      <c r="R146" t="s">
         <v>31</v>
       </c>
       <c r="S146" s="2"/>
@@ -14366,7 +14354,7 @@
       <c r="Q147" s="2">
         <v>2</v>
       </c>
-      <c r="R147" s="2" t="s">
+      <c r="R147" t="s">
         <v>31</v>
       </c>
       <c r="S147" s="2"/>
@@ -14427,7 +14415,7 @@
       <c r="Q148" s="2">
         <v>2</v>
       </c>
-      <c r="R148" s="2" t="s">
+      <c r="R148" t="s">
         <v>31</v>
       </c>
       <c r="S148" s="2"/>
@@ -14488,8 +14476,8 @@
       <c r="Q149" s="2">
         <v>2</v>
       </c>
-      <c r="R149" s="2" t="s">
-        <v>28</v>
+      <c r="R149" t="s">
+        <v>33</v>
       </c>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -14549,7 +14537,7 @@
       <c r="Q150" s="2">
         <v>2</v>
       </c>
-      <c r="R150" s="2" t="s">
+      <c r="R150" t="s">
         <v>33</v>
       </c>
       <c r="S150" s="2"/>
@@ -14610,7 +14598,7 @@
       <c r="Q151" s="2">
         <v>2</v>
       </c>
-      <c r="R151" s="2" t="s">
+      <c r="R151" t="s">
         <v>31</v>
       </c>
       <c r="S151" s="2"/>
@@ -14671,7 +14659,7 @@
       <c r="Q152" s="2">
         <v>2</v>
       </c>
-      <c r="R152" s="2" t="s">
+      <c r="R152" t="s">
         <v>33</v>
       </c>
       <c r="S152" s="2"/>
@@ -14732,8 +14720,8 @@
       <c r="Q153" s="2">
         <v>2</v>
       </c>
-      <c r="R153" s="2" t="s">
-        <v>31</v>
+      <c r="R153" t="s">
+        <v>28</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -14793,7 +14781,7 @@
       <c r="Q154" s="2">
         <v>2</v>
       </c>
-      <c r="R154" s="2" t="s">
+      <c r="R154" t="s">
         <v>31</v>
       </c>
       <c r="S154" s="2"/>
@@ -14854,7 +14842,7 @@
       <c r="Q155" s="2">
         <v>2</v>
       </c>
-      <c r="R155" s="2" t="s">
+      <c r="R155" t="s">
         <v>28</v>
       </c>
       <c r="S155" s="2"/>
@@ -14915,7 +14903,7 @@
       <c r="Q156" s="2">
         <v>2</v>
       </c>
-      <c r="R156" s="2" t="s">
+      <c r="R156" t="s">
         <v>28</v>
       </c>
       <c r="S156" s="2"/>
@@ -14976,7 +14964,7 @@
       <c r="Q157" s="2">
         <v>2</v>
       </c>
-      <c r="R157" s="2" t="s">
+      <c r="R157" t="s">
         <v>33</v>
       </c>
       <c r="S157" s="2"/>
@@ -15037,7 +15025,7 @@
       <c r="Q158" s="2">
         <v>2</v>
       </c>
-      <c r="R158" s="2" t="s">
+      <c r="R158" t="s">
         <v>31</v>
       </c>
       <c r="S158" s="2"/>
@@ -15098,8 +15086,8 @@
       <c r="Q159" s="2">
         <v>2</v>
       </c>
-      <c r="R159" s="2" t="s">
-        <v>28</v>
+      <c r="R159" t="s">
+        <v>31</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -15159,7 +15147,7 @@
       <c r="Q160" s="2">
         <v>2</v>
       </c>
-      <c r="R160" s="2" t="s">
+      <c r="R160" t="s">
         <v>31</v>
       </c>
       <c r="S160" s="2"/>
@@ -15220,7 +15208,7 @@
       <c r="Q161" s="2">
         <v>2</v>
       </c>
-      <c r="R161" s="2" t="s">
+      <c r="R161" t="s">
         <v>28</v>
       </c>
       <c r="S161" s="2"/>
@@ -15281,7 +15269,7 @@
       <c r="Q162" s="2">
         <v>2</v>
       </c>
-      <c r="R162" s="2" t="s">
+      <c r="R162" t="s">
         <v>31</v>
       </c>
       <c r="S162" s="2"/>
@@ -15342,7 +15330,7 @@
       <c r="Q163" s="2">
         <v>2</v>
       </c>
-      <c r="R163" s="2" t="s">
+      <c r="R163" t="s">
         <v>28</v>
       </c>
       <c r="S163" s="2"/>
@@ -15403,7 +15391,7 @@
       <c r="Q164" s="2">
         <v>2</v>
       </c>
-      <c r="R164" s="2" t="s">
+      <c r="R164" t="s">
         <v>28</v>
       </c>
       <c r="S164" s="2"/>
@@ -15464,7 +15452,7 @@
       <c r="Q165" s="2">
         <v>2</v>
       </c>
-      <c r="R165" s="2" t="s">
+      <c r="R165" t="s">
         <v>31</v>
       </c>
       <c r="S165" s="2"/>
@@ -15525,8 +15513,8 @@
       <c r="Q166" s="2">
         <v>2</v>
       </c>
-      <c r="R166" s="2" t="s">
-        <v>28</v>
+      <c r="R166" t="s">
+        <v>33</v>
       </c>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
@@ -15586,7 +15574,7 @@
       <c r="Q167" s="2">
         <v>2</v>
       </c>
-      <c r="R167" s="2" t="s">
+      <c r="R167" t="s">
         <v>31</v>
       </c>
       <c r="S167" s="2"/>
@@ -15647,7 +15635,7 @@
       <c r="Q168" s="2">
         <v>2</v>
       </c>
-      <c r="R168" s="2" t="s">
+      <c r="R168" t="s">
         <v>28</v>
       </c>
       <c r="S168" s="2"/>
@@ -15708,7 +15696,7 @@
       <c r="Q169" s="2">
         <v>2</v>
       </c>
-      <c r="R169" s="2" t="s">
+      <c r="R169" t="s">
         <v>31</v>
       </c>
       <c r="S169" s="2"/>
@@ -15769,7 +15757,7 @@
       <c r="Q170" s="2">
         <v>2</v>
       </c>
-      <c r="R170" s="2" t="s">
+      <c r="R170" t="s">
         <v>28</v>
       </c>
       <c r="S170" s="2"/>
@@ -15830,7 +15818,7 @@
       <c r="Q171" s="2">
         <v>2</v>
       </c>
-      <c r="R171" s="2" t="s">
+      <c r="R171" t="s">
         <v>28</v>
       </c>
       <c r="S171" s="2"/>
@@ -15891,8 +15879,8 @@
       <c r="Q172" s="2">
         <v>2</v>
       </c>
-      <c r="R172" s="2" t="s">
-        <v>28</v>
+      <c r="R172" t="s">
+        <v>33</v>
       </c>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
@@ -15952,7 +15940,7 @@
       <c r="Q173" s="2">
         <v>2</v>
       </c>
-      <c r="R173" s="2" t="s">
+      <c r="R173" t="s">
         <v>31</v>
       </c>
       <c r="S173" s="2"/>
@@ -16013,8 +16001,8 @@
       <c r="Q174" s="2">
         <v>2</v>
       </c>
-      <c r="R174" s="2" t="s">
-        <v>28</v>
+      <c r="R174" t="s">
+        <v>31</v>
       </c>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
@@ -16074,8 +16062,8 @@
       <c r="Q175" s="2">
         <v>2</v>
       </c>
-      <c r="R175" s="2" t="s">
-        <v>33</v>
+      <c r="R175" t="s">
+        <v>31</v>
       </c>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
@@ -16135,8 +16123,8 @@
       <c r="Q176" s="2">
         <v>2</v>
       </c>
-      <c r="R176" s="2" t="s">
-        <v>33</v>
+      <c r="R176" t="s">
+        <v>31</v>
       </c>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
@@ -16196,8 +16184,8 @@
       <c r="Q177" s="2">
         <v>2</v>
       </c>
-      <c r="R177" s="2" t="s">
-        <v>33</v>
+      <c r="R177" t="s">
+        <v>31</v>
       </c>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
@@ -16257,8 +16245,8 @@
       <c r="Q178" s="2">
         <v>2</v>
       </c>
-      <c r="R178" s="2" t="s">
-        <v>33</v>
+      <c r="R178" t="s">
+        <v>28</v>
       </c>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
@@ -16318,7 +16306,7 @@
       <c r="Q179" s="2">
         <v>2</v>
       </c>
-      <c r="R179" s="2" t="s">
+      <c r="R179" t="s">
         <v>31</v>
       </c>
       <c r="S179" s="2"/>
@@ -16379,8 +16367,8 @@
       <c r="Q180" s="2">
         <v>2</v>
       </c>
-      <c r="R180" s="2" t="s">
-        <v>33</v>
+      <c r="R180" t="s">
+        <v>31</v>
       </c>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
@@ -16440,8 +16428,8 @@
       <c r="Q181" s="2">
         <v>2</v>
       </c>
-      <c r="R181" s="2" t="s">
-        <v>33</v>
+      <c r="R181" t="s">
+        <v>28</v>
       </c>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
@@ -16501,8 +16489,8 @@
       <c r="Q182" s="2">
         <v>2</v>
       </c>
-      <c r="R182" s="2" t="s">
-        <v>33</v>
+      <c r="R182" t="s">
+        <v>28</v>
       </c>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
@@ -16562,7 +16550,7 @@
       <c r="Q183" s="2">
         <v>2</v>
       </c>
-      <c r="R183" s="2" t="s">
+      <c r="R183" t="s">
         <v>33</v>
       </c>
       <c r="S183" s="2"/>
@@ -16623,8 +16611,8 @@
       <c r="Q184" s="2">
         <v>2</v>
       </c>
-      <c r="R184" s="2" t="s">
-        <v>33</v>
+      <c r="R184" t="s">
+        <v>28</v>
       </c>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
@@ -16684,8 +16672,8 @@
       <c r="Q185" s="2">
         <v>2</v>
       </c>
-      <c r="R185" s="2" t="s">
-        <v>33</v>
+      <c r="R185" t="s">
+        <v>31</v>
       </c>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
@@ -16745,8 +16733,8 @@
       <c r="Q186" s="2">
         <v>2</v>
       </c>
-      <c r="R186" s="2" t="s">
-        <v>33</v>
+      <c r="R186" t="s">
+        <v>31</v>
       </c>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
@@ -16806,8 +16794,8 @@
       <c r="Q187" s="2">
         <v>2</v>
       </c>
-      <c r="R187" s="2" t="s">
-        <v>33</v>
+      <c r="R187" t="s">
+        <v>31</v>
       </c>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
@@ -16867,8 +16855,8 @@
       <c r="Q188" s="2">
         <v>2</v>
       </c>
-      <c r="R188" s="2" t="s">
-        <v>33</v>
+      <c r="R188" t="s">
+        <v>31</v>
       </c>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
@@ -16928,7 +16916,7 @@
       <c r="Q189" s="2">
         <v>2</v>
       </c>
-      <c r="R189" s="2" t="s">
+      <c r="R189" t="s">
         <v>31</v>
       </c>
       <c r="S189" s="2"/>
@@ -16989,8 +16977,8 @@
       <c r="Q190" s="2">
         <v>2</v>
       </c>
-      <c r="R190" s="2" t="s">
-        <v>33</v>
+      <c r="R190" t="s">
+        <v>31</v>
       </c>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
@@ -17050,7 +17038,7 @@
       <c r="Q191" s="2">
         <v>2</v>
       </c>
-      <c r="R191" s="2" t="s">
+      <c r="R191" t="s">
         <v>31</v>
       </c>
       <c r="S191" s="2"/>
@@ -17111,7 +17099,7 @@
       <c r="Q192" s="2">
         <v>2</v>
       </c>
-      <c r="R192" s="2" t="s">
+      <c r="R192" t="s">
         <v>31</v>
       </c>
       <c r="S192" s="2"/>
@@ -17172,8 +17160,8 @@
       <c r="Q193" s="2">
         <v>2</v>
       </c>
-      <c r="R193" s="2" t="s">
-        <v>33</v>
+      <c r="R193" t="s">
+        <v>28</v>
       </c>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
@@ -17233,8 +17221,8 @@
       <c r="Q194" s="2">
         <v>2</v>
       </c>
-      <c r="R194" s="2" t="s">
-        <v>33</v>
+      <c r="R194" t="s">
+        <v>31</v>
       </c>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
@@ -17294,8 +17282,8 @@
       <c r="Q195" s="2">
         <v>2</v>
       </c>
-      <c r="R195" s="2" t="s">
-        <v>33</v>
+      <c r="R195" t="s">
+        <v>31</v>
       </c>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
@@ -17355,7 +17343,7 @@
       <c r="Q196" s="2">
         <v>2</v>
       </c>
-      <c r="R196" s="2" t="s">
+      <c r="R196" t="s">
         <v>28</v>
       </c>
       <c r="S196" s="2"/>
@@ -17416,7 +17404,7 @@
       <c r="Q197" s="2">
         <v>2</v>
       </c>
-      <c r="R197" s="2" t="s">
+      <c r="R197" t="s">
         <v>31</v>
       </c>
       <c r="S197" s="2"/>
@@ -17477,7 +17465,7 @@
       <c r="Q198" s="2">
         <v>2</v>
       </c>
-      <c r="R198" s="2" t="s">
+      <c r="R198" t="s">
         <v>31</v>
       </c>
       <c r="S198" s="2"/>
@@ -17538,8 +17526,8 @@
       <c r="Q199" s="2">
         <v>2</v>
       </c>
-      <c r="R199" s="2" t="s">
-        <v>31</v>
+      <c r="R199" t="s">
+        <v>28</v>
       </c>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
@@ -17599,7 +17587,7 @@
       <c r="Q200" s="2">
         <v>2</v>
       </c>
-      <c r="R200" s="2" t="s">
+      <c r="R200" t="s">
         <v>31</v>
       </c>
       <c r="S200" s="2"/>
@@ -17660,8 +17648,8 @@
       <c r="Q201" s="2">
         <v>2</v>
       </c>
-      <c r="R201" s="2" t="s">
-        <v>33</v>
+      <c r="R201" t="s">
+        <v>28</v>
       </c>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
@@ -17721,8 +17709,8 @@
       <c r="Q202" s="2">
         <v>2</v>
       </c>
-      <c r="R202" s="2" t="s">
-        <v>33</v>
+      <c r="R202" t="s">
+        <v>28</v>
       </c>
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
@@ -17782,7 +17770,7 @@
       <c r="Q203" s="2">
         <v>2</v>
       </c>
-      <c r="R203" s="2" t="s">
+      <c r="R203" t="s">
         <v>28</v>
       </c>
       <c r="S203" s="2"/>
@@ -17843,7 +17831,7 @@
       <c r="Q204" s="2">
         <v>2</v>
       </c>
-      <c r="R204" s="2" t="s">
+      <c r="R204" t="s">
         <v>28</v>
       </c>
       <c r="S204" s="2"/>
@@ -17904,7 +17892,7 @@
       <c r="Q205" s="2">
         <v>2</v>
       </c>
-      <c r="R205" s="2" t="s">
+      <c r="R205" t="s">
         <v>31</v>
       </c>
       <c r="S205" s="2"/>
@@ -17965,8 +17953,8 @@
       <c r="Q206" s="2">
         <v>2</v>
       </c>
-      <c r="R206" s="2" t="s">
-        <v>28</v>
+      <c r="R206" t="s">
+        <v>33</v>
       </c>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
@@ -18026,8 +18014,8 @@
       <c r="Q207" s="2">
         <v>2</v>
       </c>
-      <c r="R207" s="2" t="s">
-        <v>33</v>
+      <c r="R207" t="s">
+        <v>28</v>
       </c>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
@@ -18087,8 +18075,8 @@
       <c r="Q208" s="2">
         <v>2</v>
       </c>
-      <c r="R208" s="2" t="s">
-        <v>33</v>
+      <c r="R208" t="s">
+        <v>31</v>
       </c>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
@@ -18148,7 +18136,7 @@
       <c r="Q209" s="2">
         <v>2</v>
       </c>
-      <c r="R209" s="2" t="s">
+      <c r="R209" t="s">
         <v>31</v>
       </c>
       <c r="S209" s="2"/>
@@ -18209,7 +18197,7 @@
       <c r="Q210" s="2">
         <v>2</v>
       </c>
-      <c r="R210" s="2" t="s">
+      <c r="R210" t="s">
         <v>31</v>
       </c>
       <c r="S210" s="2"/>
@@ -18270,8 +18258,8 @@
       <c r="Q211" s="2">
         <v>2</v>
       </c>
-      <c r="R211" s="2" t="s">
-        <v>28</v>
+      <c r="R211" t="s">
+        <v>33</v>
       </c>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
@@ -18331,7 +18319,7 @@
       <c r="Q212" s="2">
         <v>2</v>
       </c>
-      <c r="R212" s="2" t="s">
+      <c r="R212" t="s">
         <v>28</v>
       </c>
       <c r="S212" s="2"/>
@@ -18392,8 +18380,8 @@
       <c r="Q213" s="2">
         <v>2</v>
       </c>
-      <c r="R213" s="2" t="s">
-        <v>33</v>
+      <c r="R213" t="s">
+        <v>28</v>
       </c>
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
@@ -18453,7 +18441,7 @@
       <c r="Q214" s="2">
         <v>2</v>
       </c>
-      <c r="R214" s="2" t="s">
+      <c r="R214" t="s">
         <v>31</v>
       </c>
       <c r="S214" s="2"/>
@@ -18514,8 +18502,8 @@
       <c r="Q215" s="2">
         <v>2</v>
       </c>
-      <c r="R215" s="2" t="s">
-        <v>31</v>
+      <c r="R215" t="s">
+        <v>28</v>
       </c>
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
@@ -18575,8 +18563,8 @@
       <c r="Q216" s="2">
         <v>2</v>
       </c>
-      <c r="R216" s="2" t="s">
-        <v>28</v>
+      <c r="R216" t="s">
+        <v>33</v>
       </c>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
@@ -18636,7 +18624,7 @@
       <c r="Q217" s="2">
         <v>2</v>
       </c>
-      <c r="R217" s="2" t="s">
+      <c r="R217" t="s">
         <v>31</v>
       </c>
       <c r="S217" s="2"/>
@@ -18697,7 +18685,7 @@
       <c r="Q218" s="2">
         <v>2</v>
       </c>
-      <c r="R218" s="2" t="s">
+      <c r="R218" t="s">
         <v>31</v>
       </c>
       <c r="S218" s="2"/>
@@ -18758,7 +18746,7 @@
       <c r="Q219" s="2">
         <v>2</v>
       </c>
-      <c r="R219" s="2" t="s">
+      <c r="R219" t="s">
         <v>31</v>
       </c>
       <c r="S219" s="2"/>
@@ -18819,7 +18807,7 @@
       <c r="Q220" s="2">
         <v>2</v>
       </c>
-      <c r="R220" s="2" t="s">
+      <c r="R220" t="s">
         <v>31</v>
       </c>
       <c r="S220" s="2"/>
@@ -18880,7 +18868,7 @@
       <c r="Q221" s="2">
         <v>2</v>
       </c>
-      <c r="R221" s="2" t="s">
+      <c r="R221" t="s">
         <v>31</v>
       </c>
       <c r="S221" s="2"/>
@@ -18941,7 +18929,7 @@
       <c r="Q222" s="2">
         <v>2</v>
       </c>
-      <c r="R222" s="2" t="s">
+      <c r="R222" t="s">
         <v>31</v>
       </c>
       <c r="S222" s="2"/>
@@ -19002,7 +18990,7 @@
       <c r="Q223" s="2">
         <v>2</v>
       </c>
-      <c r="R223" s="2" t="s">
+      <c r="R223" t="s">
         <v>31</v>
       </c>
       <c r="S223" s="2"/>
@@ -19063,8 +19051,8 @@
       <c r="Q224" s="2">
         <v>2</v>
       </c>
-      <c r="R224" s="2" t="s">
-        <v>28</v>
+      <c r="R224" t="s">
+        <v>31</v>
       </c>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
@@ -19124,7 +19112,7 @@
       <c r="Q225" s="2">
         <v>2</v>
       </c>
-      <c r="R225" s="2" t="s">
+      <c r="R225" t="s">
         <v>31</v>
       </c>
       <c r="S225" s="2"/>
@@ -19185,8 +19173,8 @@
       <c r="Q226" s="2">
         <v>2</v>
       </c>
-      <c r="R226" s="2" t="s">
-        <v>33</v>
+      <c r="R226" t="s">
+        <v>28</v>
       </c>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
@@ -19246,8 +19234,8 @@
       <c r="Q227" s="2">
         <v>2</v>
       </c>
-      <c r="R227" s="2" t="s">
-        <v>33</v>
+      <c r="R227" t="s">
+        <v>28</v>
       </c>
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
@@ -19307,8 +19295,8 @@
       <c r="Q228" s="2">
         <v>2</v>
       </c>
-      <c r="R228" s="2" t="s">
-        <v>31</v>
+      <c r="R228" t="s">
+        <v>28</v>
       </c>
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
@@ -19368,8 +19356,8 @@
       <c r="Q229" s="2">
         <v>2</v>
       </c>
-      <c r="R229" s="2" t="s">
-        <v>31</v>
+      <c r="R229" t="s">
+        <v>28</v>
       </c>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
@@ -19429,8 +19417,8 @@
       <c r="Q230" s="2">
         <v>2</v>
       </c>
-      <c r="R230" s="2" t="s">
-        <v>33</v>
+      <c r="R230" t="s">
+        <v>28</v>
       </c>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
@@ -19490,7 +19478,7 @@
       <c r="Q231" s="2">
         <v>2</v>
       </c>
-      <c r="R231" s="2" t="s">
+      <c r="R231" t="s">
         <v>31</v>
       </c>
       <c r="S231" s="2"/>
@@ -19551,8 +19539,8 @@
       <c r="Q232" s="2">
         <v>2</v>
       </c>
-      <c r="R232" s="2" t="s">
-        <v>33</v>
+      <c r="R232" t="s">
+        <v>28</v>
       </c>
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
@@ -19612,8 +19600,8 @@
       <c r="Q233" s="2">
         <v>2</v>
       </c>
-      <c r="R233" s="2" t="s">
-        <v>31</v>
+      <c r="R233" t="s">
+        <v>28</v>
       </c>
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
@@ -19673,7 +19661,7 @@
       <c r="Q234" s="2">
         <v>2</v>
       </c>
-      <c r="R234" s="2" t="s">
+      <c r="R234" t="s">
         <v>33</v>
       </c>
       <c r="S234" s="2"/>
@@ -19734,8 +19722,8 @@
       <c r="Q235" s="2">
         <v>2</v>
       </c>
-      <c r="R235" s="2" t="s">
-        <v>31</v>
+      <c r="R235" t="s">
+        <v>28</v>
       </c>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
@@ -19795,7 +19783,7 @@
       <c r="Q236" s="2">
         <v>2</v>
       </c>
-      <c r="R236" s="2" t="s">
+      <c r="R236" t="s">
         <v>31</v>
       </c>
       <c r="S236" s="2"/>
@@ -19856,7 +19844,7 @@
       <c r="Q237" s="2">
         <v>2</v>
       </c>
-      <c r="R237" s="2" t="s">
+      <c r="R237" t="s">
         <v>31</v>
       </c>
       <c r="S237" s="2"/>
@@ -19917,8 +19905,8 @@
       <c r="Q238" s="2">
         <v>2</v>
       </c>
-      <c r="R238" s="2" t="s">
-        <v>28</v>
+      <c r="R238" t="s">
+        <v>33</v>
       </c>
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
@@ -19978,7 +19966,7 @@
       <c r="Q239" s="2">
         <v>2</v>
       </c>
-      <c r="R239" s="2" t="s">
+      <c r="R239" t="s">
         <v>33</v>
       </c>
       <c r="S239" s="2"/>
@@ -20039,8 +20027,8 @@
       <c r="Q240" s="2">
         <v>2</v>
       </c>
-      <c r="R240" s="2" t="s">
-        <v>28</v>
+      <c r="R240" t="s">
+        <v>33</v>
       </c>
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
@@ -20100,7 +20088,7 @@
       <c r="Q241" s="2">
         <v>2</v>
       </c>
-      <c r="R241" s="2" t="s">
+      <c r="R241" t="s">
         <v>33</v>
       </c>
       <c r="S241" s="2"/>
@@ -20161,8 +20149,8 @@
       <c r="Q242" s="2">
         <v>2</v>
       </c>
-      <c r="R242" s="2" t="s">
-        <v>28</v>
+      <c r="R242" t="s">
+        <v>33</v>
       </c>
       <c r="S242" s="2"/>
       <c r="T242" s="2"/>
@@ -20222,8 +20210,8 @@
       <c r="Q243" s="2">
         <v>2</v>
       </c>
-      <c r="R243" s="2" t="s">
-        <v>31</v>
+      <c r="R243" t="s">
+        <v>33</v>
       </c>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
@@ -20283,8 +20271,8 @@
       <c r="Q244" s="2">
         <v>2</v>
       </c>
-      <c r="R244" s="2" t="s">
-        <v>31</v>
+      <c r="R244" t="s">
+        <v>33</v>
       </c>
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
@@ -20344,7 +20332,7 @@
       <c r="Q245" s="2">
         <v>2</v>
       </c>
-      <c r="R245" s="2" t="s">
+      <c r="R245" t="s">
         <v>33</v>
       </c>
       <c r="S245" s="2"/>
@@ -20405,7 +20393,7 @@
       <c r="Q246" s="2">
         <v>2</v>
       </c>
-      <c r="R246" s="2" t="s">
+      <c r="R246" t="s">
         <v>33</v>
       </c>
       <c r="S246" s="2"/>
@@ -20466,7 +20454,7 @@
       <c r="Q247" s="2">
         <v>2</v>
       </c>
-      <c r="R247" s="2" t="s">
+      <c r="R247" t="s">
         <v>31</v>
       </c>
       <c r="S247" s="2"/>
@@ -20527,7 +20515,7 @@
       <c r="Q248" s="2">
         <v>2</v>
       </c>
-      <c r="R248" s="2" t="s">
+      <c r="R248" t="s">
         <v>31</v>
       </c>
       <c r="S248" s="2"/>
@@ -20588,7 +20576,7 @@
       <c r="Q249" s="2">
         <v>2</v>
       </c>
-      <c r="R249" s="2" t="s">
+      <c r="R249" t="s">
         <v>31</v>
       </c>
       <c r="S249" s="2"/>
@@ -20649,7 +20637,7 @@
       <c r="Q250" s="2">
         <v>2</v>
       </c>
-      <c r="R250" s="2" t="s">
+      <c r="R250" t="s">
         <v>31</v>
       </c>
       <c r="S250" s="2"/>
@@ -20710,7 +20698,7 @@
       <c r="Q251" s="2">
         <v>2</v>
       </c>
-      <c r="R251" s="2" t="s">
+      <c r="R251" t="s">
         <v>31</v>
       </c>
       <c r="S251" s="2"/>
@@ -20771,7 +20759,7 @@
       <c r="Q252" s="2">
         <v>2</v>
       </c>
-      <c r="R252" s="2" t="s">
+      <c r="R252" t="s">
         <v>31</v>
       </c>
       <c r="S252" s="2"/>
@@ -20832,7 +20820,7 @@
       <c r="Q253" s="2">
         <v>2</v>
       </c>
-      <c r="R253" s="2" t="s">
+      <c r="R253" t="s">
         <v>28</v>
       </c>
       <c r="S253" s="2"/>
@@ -20893,7 +20881,7 @@
       <c r="Q254" s="2">
         <v>2</v>
       </c>
-      <c r="R254" s="2" t="s">
+      <c r="R254" t="s">
         <v>28</v>
       </c>
       <c r="S254" s="2"/>
@@ -20954,8 +20942,8 @@
       <c r="Q255" s="2">
         <v>2</v>
       </c>
-      <c r="R255" s="2" t="s">
-        <v>28</v>
+      <c r="R255" t="s">
+        <v>31</v>
       </c>
       <c r="S255" s="2"/>
       <c r="T255" s="2"/>
@@ -21015,7 +21003,7 @@
       <c r="Q256" s="2">
         <v>2</v>
       </c>
-      <c r="R256" s="2" t="s">
+      <c r="R256" t="s">
         <v>31</v>
       </c>
       <c r="S256" s="2"/>
@@ -21076,8 +21064,8 @@
       <c r="Q257" s="2">
         <v>2</v>
       </c>
-      <c r="R257" s="2" t="s">
-        <v>31</v>
+      <c r="R257" t="s">
+        <v>28</v>
       </c>
       <c r="S257" s="2"/>
       <c r="T257" s="2"/>
@@ -21137,8 +21125,8 @@
       <c r="Q258" s="2">
         <v>2</v>
       </c>
-      <c r="R258" s="2" t="s">
-        <v>28</v>
+      <c r="R258" t="s">
+        <v>31</v>
       </c>
       <c r="S258" s="2"/>
       <c r="T258" s="2"/>
@@ -21198,7 +21186,7 @@
       <c r="Q259" s="2">
         <v>2</v>
       </c>
-      <c r="R259" s="2" t="s">
+      <c r="R259" t="s">
         <v>28</v>
       </c>
       <c r="S259" s="2"/>
@@ -21259,7 +21247,7 @@
       <c r="Q260" s="2">
         <v>2</v>
       </c>
-      <c r="R260" s="2" t="s">
+      <c r="R260" t="s">
         <v>28</v>
       </c>
       <c r="S260" s="2"/>
@@ -21320,8 +21308,8 @@
       <c r="Q261" s="2">
         <v>2</v>
       </c>
-      <c r="R261" s="2" t="s">
-        <v>31</v>
+      <c r="R261" t="s">
+        <v>28</v>
       </c>
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
@@ -21381,7 +21369,7 @@
       <c r="Q262" s="2">
         <v>2</v>
       </c>
-      <c r="R262" s="2" t="s">
+      <c r="R262" t="s">
         <v>28</v>
       </c>
       <c r="S262" s="2"/>
@@ -21442,7 +21430,7 @@
       <c r="Q263" s="2">
         <v>2</v>
       </c>
-      <c r="R263" s="2" t="s">
+      <c r="R263" t="s">
         <v>28</v>
       </c>
       <c r="S263" s="2"/>
@@ -21503,7 +21491,7 @@
       <c r="Q264" s="2">
         <v>2</v>
       </c>
-      <c r="R264" s="2" t="s">
+      <c r="R264" t="s">
         <v>28</v>
       </c>
       <c r="S264" s="2"/>
@@ -21564,7 +21552,7 @@
       <c r="Q265" s="2">
         <v>2</v>
       </c>
-      <c r="R265" s="2" t="s">
+      <c r="R265" t="s">
         <v>28</v>
       </c>
       <c r="S265" s="2"/>
@@ -21625,8 +21613,8 @@
       <c r="Q266" s="2">
         <v>3</v>
       </c>
-      <c r="R266" s="2" t="s">
-        <v>33</v>
+      <c r="R266" t="s">
+        <v>31</v>
       </c>
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
@@ -21686,7 +21674,7 @@
       <c r="Q267" s="2">
         <v>3</v>
       </c>
-      <c r="R267" s="2" t="s">
+      <c r="R267" t="s">
         <v>31</v>
       </c>
       <c r="S267" s="2"/>
@@ -21747,7 +21735,7 @@
       <c r="Q268" s="2">
         <v>3</v>
       </c>
-      <c r="R268" s="2" t="s">
+      <c r="R268" t="s">
         <v>31</v>
       </c>
       <c r="S268" s="2"/>
@@ -21808,7 +21796,7 @@
       <c r="Q269" s="2">
         <v>3</v>
       </c>
-      <c r="R269" s="2" t="s">
+      <c r="R269" t="s">
         <v>31</v>
       </c>
       <c r="S269" s="2"/>
@@ -21869,7 +21857,7 @@
       <c r="Q270" s="2">
         <v>3</v>
       </c>
-      <c r="R270" s="2" t="s">
+      <c r="R270" t="s">
         <v>31</v>
       </c>
       <c r="S270" s="2"/>
@@ -21930,7 +21918,7 @@
       <c r="Q271" s="2">
         <v>3</v>
       </c>
-      <c r="R271" s="2" t="s">
+      <c r="R271" t="s">
         <v>31</v>
       </c>
       <c r="S271" s="2"/>
@@ -21991,7 +21979,7 @@
       <c r="Q272" s="2">
         <v>3</v>
       </c>
-      <c r="R272" s="2" t="s">
+      <c r="R272" t="s">
         <v>31</v>
       </c>
       <c r="S272" s="2"/>
@@ -22052,7 +22040,7 @@
       <c r="Q273" s="2">
         <v>3</v>
       </c>
-      <c r="R273" s="2" t="s">
+      <c r="R273" t="s">
         <v>31</v>
       </c>
       <c r="S273" s="2"/>
@@ -22113,7 +22101,7 @@
       <c r="Q274" s="2">
         <v>3</v>
       </c>
-      <c r="R274" s="2" t="s">
+      <c r="R274" t="s">
         <v>31</v>
       </c>
       <c r="S274" s="2"/>
@@ -22174,7 +22162,7 @@
       <c r="Q275" s="2">
         <v>3</v>
       </c>
-      <c r="R275" s="2" t="s">
+      <c r="R275" t="s">
         <v>31</v>
       </c>
       <c r="S275" s="2"/>
@@ -22235,7 +22223,7 @@
       <c r="Q276" s="2">
         <v>3</v>
       </c>
-      <c r="R276" s="2" t="s">
+      <c r="R276" t="s">
         <v>31</v>
       </c>
       <c r="S276" s="2"/>
@@ -22296,7 +22284,7 @@
       <c r="Q277" s="2">
         <v>3</v>
       </c>
-      <c r="R277" s="2" t="s">
+      <c r="R277" t="s">
         <v>31</v>
       </c>
       <c r="S277" s="2"/>
@@ -22357,7 +22345,7 @@
       <c r="Q278" s="2">
         <v>3</v>
       </c>
-      <c r="R278" s="2" t="s">
+      <c r="R278" t="s">
         <v>31</v>
       </c>
       <c r="S278" s="2"/>
@@ -22418,7 +22406,7 @@
       <c r="Q279" s="2">
         <v>3</v>
       </c>
-      <c r="R279" s="2" t="s">
+      <c r="R279" t="s">
         <v>31</v>
       </c>
       <c r="S279" s="2"/>
@@ -22479,7 +22467,7 @@
       <c r="Q280" s="2">
         <v>3</v>
       </c>
-      <c r="R280" s="2" t="s">
+      <c r="R280" t="s">
         <v>31</v>
       </c>
       <c r="S280" s="2"/>
@@ -22540,7 +22528,7 @@
       <c r="Q281" s="2">
         <v>3</v>
       </c>
-      <c r="R281" s="2" t="s">
+      <c r="R281" t="s">
         <v>31</v>
       </c>
       <c r="S281" s="2"/>
@@ -22601,7 +22589,7 @@
       <c r="Q282" s="2">
         <v>3</v>
       </c>
-      <c r="R282" s="2" t="s">
+      <c r="R282" t="s">
         <v>31</v>
       </c>
       <c r="S282" s="2"/>
@@ -22662,7 +22650,7 @@
       <c r="Q283" s="2">
         <v>3</v>
       </c>
-      <c r="R283" s="2" t="s">
+      <c r="R283" t="s">
         <v>31</v>
       </c>
       <c r="S283" s="2"/>
@@ -22723,7 +22711,7 @@
       <c r="Q284" s="2">
         <v>3</v>
       </c>
-      <c r="R284" s="2" t="s">
+      <c r="R284" t="s">
         <v>31</v>
       </c>
       <c r="S284" s="2"/>
@@ -22784,7 +22772,7 @@
       <c r="Q285" s="2">
         <v>3</v>
       </c>
-      <c r="R285" s="2" t="s">
+      <c r="R285" t="s">
         <v>31</v>
       </c>
       <c r="S285" s="2"/>
@@ -22845,7 +22833,7 @@
       <c r="Q286" s="2">
         <v>3</v>
       </c>
-      <c r="R286" s="2" t="s">
+      <c r="R286" t="s">
         <v>31</v>
       </c>
       <c r="S286" s="2"/>
@@ -22906,7 +22894,7 @@
       <c r="Q287" s="2">
         <v>3</v>
       </c>
-      <c r="R287" s="2" t="s">
+      <c r="R287" t="s">
         <v>31</v>
       </c>
       <c r="S287" s="2"/>
@@ -22967,7 +22955,7 @@
       <c r="Q288" s="2">
         <v>3</v>
       </c>
-      <c r="R288" s="2" t="s">
+      <c r="R288" t="s">
         <v>31</v>
       </c>
       <c r="S288" s="2"/>
@@ -23028,7 +23016,7 @@
       <c r="Q289" s="2">
         <v>3</v>
       </c>
-      <c r="R289" s="2" t="s">
+      <c r="R289" t="s">
         <v>31</v>
       </c>
       <c r="S289" s="2"/>
@@ -23089,7 +23077,7 @@
       <c r="Q290" s="2">
         <v>3</v>
       </c>
-      <c r="R290" s="2" t="s">
+      <c r="R290" t="s">
         <v>31</v>
       </c>
       <c r="S290" s="2"/>
@@ -23150,7 +23138,7 @@
       <c r="Q291" s="2">
         <v>3</v>
       </c>
-      <c r="R291" s="2" t="s">
+      <c r="R291" t="s">
         <v>31</v>
       </c>
       <c r="S291" s="2"/>
@@ -23211,7 +23199,7 @@
       <c r="Q292" s="2">
         <v>3</v>
       </c>
-      <c r="R292" s="2" t="s">
+      <c r="R292" t="s">
         <v>31</v>
       </c>
       <c r="S292" s="2"/>
@@ -23272,7 +23260,7 @@
       <c r="Q293" s="2">
         <v>3</v>
       </c>
-      <c r="R293" s="2" t="s">
+      <c r="R293" t="s">
         <v>31</v>
       </c>
       <c r="S293" s="2"/>
@@ -23333,7 +23321,7 @@
       <c r="Q294" s="2">
         <v>3</v>
       </c>
-      <c r="R294" s="2" t="s">
+      <c r="R294" t="s">
         <v>31</v>
       </c>
       <c r="S294" s="2"/>
@@ -23392,7 +23380,7 @@
       <c r="Q295" s="2">
         <v>3</v>
       </c>
-      <c r="R295" s="2" t="s">
+      <c r="R295" t="s">
         <v>31</v>
       </c>
       <c r="S295" s="2"/>
@@ -23453,7 +23441,7 @@
       <c r="Q296" s="2">
         <v>3</v>
       </c>
-      <c r="R296" s="2" t="s">
+      <c r="R296" t="s">
         <v>31</v>
       </c>
       <c r="S296" s="2"/>
@@ -23514,7 +23502,7 @@
       <c r="Q297" s="2">
         <v>3</v>
       </c>
-      <c r="R297" s="2" t="s">
+      <c r="R297" t="s">
         <v>31</v>
       </c>
       <c r="S297" s="2"/>
@@ -23575,7 +23563,7 @@
       <c r="Q298" s="2">
         <v>3</v>
       </c>
-      <c r="R298" s="2" t="s">
+      <c r="R298" t="s">
         <v>31</v>
       </c>
       <c r="S298" s="2"/>
@@ -23636,7 +23624,7 @@
       <c r="Q299" s="2">
         <v>3</v>
       </c>
-      <c r="R299" s="2" t="s">
+      <c r="R299" t="s">
         <v>28</v>
       </c>
       <c r="S299" s="2"/>
@@ -23697,7 +23685,7 @@
       <c r="Q300" s="2">
         <v>3</v>
       </c>
-      <c r="R300" s="2" t="s">
+      <c r="R300" t="s">
         <v>31</v>
       </c>
       <c r="S300" s="2"/>
@@ -23758,7 +23746,7 @@
       <c r="Q301" s="2">
         <v>3</v>
       </c>
-      <c r="R301" s="2" t="s">
+      <c r="R301" t="s">
         <v>31</v>
       </c>
       <c r="S301" s="2"/>
@@ -23819,7 +23807,7 @@
       <c r="Q302" s="2">
         <v>3</v>
       </c>
-      <c r="R302" s="2" t="s">
+      <c r="R302" t="s">
         <v>28</v>
       </c>
       <c r="S302" s="2"/>
@@ -23880,7 +23868,7 @@
       <c r="Q303" s="2">
         <v>3</v>
       </c>
-      <c r="R303" s="2" t="s">
+      <c r="R303" t="s">
         <v>28</v>
       </c>
       <c r="S303" s="2"/>
@@ -23941,8 +23929,8 @@
       <c r="Q304" s="2">
         <v>3</v>
       </c>
-      <c r="R304" s="2" t="s">
-        <v>31</v>
+      <c r="R304" t="s">
+        <v>28</v>
       </c>
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
@@ -24002,7 +23990,7 @@
       <c r="Q305" s="2">
         <v>3</v>
       </c>
-      <c r="R305" s="2" t="s">
+      <c r="R305" t="s">
         <v>31</v>
       </c>
       <c r="S305" s="2"/>
@@ -24063,7 +24051,7 @@
       <c r="Q306" s="2">
         <v>3</v>
       </c>
-      <c r="R306" s="2" t="s">
+      <c r="R306" t="s">
         <v>28</v>
       </c>
       <c r="S306" s="2"/>
@@ -24124,7 +24112,7 @@
       <c r="Q307" s="2">
         <v>3</v>
       </c>
-      <c r="R307" s="2" t="s">
+      <c r="R307" t="s">
         <v>31</v>
       </c>
       <c r="S307" s="2"/>
@@ -24185,7 +24173,7 @@
       <c r="Q308" s="2">
         <v>3</v>
       </c>
-      <c r="R308" s="2" t="s">
+      <c r="R308" t="s">
         <v>28</v>
       </c>
       <c r="S308" s="2"/>
@@ -24246,8 +24234,8 @@
       <c r="Q309" s="2">
         <v>3</v>
       </c>
-      <c r="R309" s="2" t="s">
-        <v>28</v>
+      <c r="R309" t="s">
+        <v>33</v>
       </c>
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
@@ -24307,8 +24295,8 @@
       <c r="Q310" s="2">
         <v>3</v>
       </c>
-      <c r="R310" s="2" t="s">
-        <v>31</v>
+      <c r="R310" t="s">
+        <v>28</v>
       </c>
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
@@ -24368,7 +24356,7 @@
       <c r="Q311" s="2">
         <v>3</v>
       </c>
-      <c r="R311" s="2" t="s">
+      <c r="R311" t="s">
         <v>28</v>
       </c>
       <c r="S311" s="2"/>
@@ -24429,8 +24417,8 @@
       <c r="Q312" s="2">
         <v>3</v>
       </c>
-      <c r="R312" s="2" t="s">
-        <v>31</v>
+      <c r="R312" t="s">
+        <v>28</v>
       </c>
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
@@ -24490,8 +24478,8 @@
       <c r="Q313" s="2">
         <v>3</v>
       </c>
-      <c r="R313" s="2" t="s">
-        <v>28</v>
+      <c r="R313" t="s">
+        <v>33</v>
       </c>
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
@@ -24551,7 +24539,7 @@
       <c r="Q314" s="2">
         <v>3</v>
       </c>
-      <c r="R314" s="2" t="s">
+      <c r="R314" t="s">
         <v>31</v>
       </c>
       <c r="S314" s="2"/>
@@ -24612,7 +24600,7 @@
       <c r="Q315" s="2">
         <v>3</v>
       </c>
-      <c r="R315" s="2" t="s">
+      <c r="R315" t="s">
         <v>31</v>
       </c>
       <c r="S315" s="2"/>
@@ -24673,7 +24661,7 @@
       <c r="Q316" s="2">
         <v>3</v>
       </c>
-      <c r="R316" s="2" t="s">
+      <c r="R316" t="s">
         <v>28</v>
       </c>
       <c r="S316" s="2"/>
@@ -24734,7 +24722,7 @@
       <c r="Q317" s="2">
         <v>3</v>
       </c>
-      <c r="R317" s="2" t="s">
+      <c r="R317" t="s">
         <v>31</v>
       </c>
       <c r="S317" s="2"/>
@@ -24795,8 +24783,8 @@
       <c r="Q318" s="2">
         <v>3</v>
       </c>
-      <c r="R318" s="2" t="s">
-        <v>28</v>
+      <c r="R318" t="s">
+        <v>33</v>
       </c>
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
@@ -24856,8 +24844,8 @@
       <c r="Q319" s="2">
         <v>3</v>
       </c>
-      <c r="R319" s="2" t="s">
-        <v>28</v>
+      <c r="R319" t="s">
+        <v>33</v>
       </c>
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
@@ -24917,7 +24905,7 @@
       <c r="Q320" s="2">
         <v>3</v>
       </c>
-      <c r="R320" s="2" t="s">
+      <c r="R320" t="s">
         <v>31</v>
       </c>
       <c r="S320" s="2"/>
@@ -24978,7 +24966,7 @@
       <c r="Q321" s="2">
         <v>3</v>
       </c>
-      <c r="R321" s="2" t="s">
+      <c r="R321" t="s">
         <v>28</v>
       </c>
       <c r="S321" s="2"/>
@@ -25039,8 +25027,8 @@
       <c r="Q322" s="2">
         <v>3</v>
       </c>
-      <c r="R322" s="2" t="s">
-        <v>31</v>
+      <c r="R322" t="s">
+        <v>28</v>
       </c>
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
@@ -25100,8 +25088,8 @@
       <c r="Q323" s="2">
         <v>3</v>
       </c>
-      <c r="R323" s="2" t="s">
-        <v>31</v>
+      <c r="R323" t="s">
+        <v>28</v>
       </c>
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
@@ -25161,7 +25149,7 @@
       <c r="Q324" s="2">
         <v>3</v>
       </c>
-      <c r="R324" s="2" t="s">
+      <c r="R324" t="s">
         <v>31</v>
       </c>
       <c r="S324" s="2"/>
@@ -25222,7 +25210,7 @@
       <c r="Q325" s="2">
         <v>3</v>
       </c>
-      <c r="R325" s="2" t="s">
+      <c r="R325" t="s">
         <v>31</v>
       </c>
       <c r="S325" s="2"/>
@@ -25283,7 +25271,7 @@
       <c r="Q326" s="2">
         <v>3</v>
       </c>
-      <c r="R326" s="2" t="s">
+      <c r="R326" t="s">
         <v>28</v>
       </c>
       <c r="S326" s="2"/>
@@ -25344,8 +25332,8 @@
       <c r="Q327" s="2">
         <v>3</v>
       </c>
-      <c r="R327" s="2" t="s">
-        <v>31</v>
+      <c r="R327" t="s">
+        <v>28</v>
       </c>
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
@@ -25405,7 +25393,7 @@
       <c r="Q328" s="2">
         <v>3</v>
       </c>
-      <c r="R328" s="2" t="s">
+      <c r="R328" t="s">
         <v>31</v>
       </c>
       <c r="S328" s="2"/>
@@ -25466,7 +25454,7 @@
       <c r="Q329" s="2">
         <v>3</v>
       </c>
-      <c r="R329" s="2" t="s">
+      <c r="R329" t="s">
         <v>28</v>
       </c>
       <c r="S329" s="2"/>
@@ -25527,8 +25515,8 @@
       <c r="Q330" s="2">
         <v>3</v>
       </c>
-      <c r="R330" s="2" t="s">
-        <v>31</v>
+      <c r="R330" t="s">
+        <v>28</v>
       </c>
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
@@ -25588,8 +25576,8 @@
       <c r="Q331" s="2">
         <v>3</v>
       </c>
-      <c r="R331" s="2" t="s">
-        <v>31</v>
+      <c r="R331" t="s">
+        <v>28</v>
       </c>
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
@@ -25649,7 +25637,7 @@
       <c r="Q332" s="2">
         <v>3</v>
       </c>
-      <c r="R332" s="2" t="s">
+      <c r="R332" t="s">
         <v>31</v>
       </c>
       <c r="S332" s="2"/>
@@ -25710,7 +25698,7 @@
       <c r="Q333" s="2">
         <v>3</v>
       </c>
-      <c r="R333" s="2" t="s">
+      <c r="R333" t="s">
         <v>31</v>
       </c>
       <c r="S333" s="2"/>
@@ -25771,8 +25759,8 @@
       <c r="Q334" s="2">
         <v>3</v>
       </c>
-      <c r="R334" s="2" t="s">
-        <v>31</v>
+      <c r="R334" t="s">
+        <v>28</v>
       </c>
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
@@ -25832,8 +25820,8 @@
       <c r="Q335" s="2">
         <v>3</v>
       </c>
-      <c r="R335" s="2" t="s">
-        <v>31</v>
+      <c r="R335" t="s">
+        <v>28</v>
       </c>
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
@@ -25893,7 +25881,7 @@
       <c r="Q336" s="2">
         <v>3</v>
       </c>
-      <c r="R336" s="2" t="s">
+      <c r="R336" t="s">
         <v>28</v>
       </c>
       <c r="S336" s="2"/>
@@ -25954,8 +25942,8 @@
       <c r="Q337" s="2">
         <v>3</v>
       </c>
-      <c r="R337" s="2" t="s">
-        <v>31</v>
+      <c r="R337" t="s">
+        <v>28</v>
       </c>
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
@@ -26015,8 +26003,8 @@
       <c r="Q338" s="2">
         <v>3</v>
       </c>
-      <c r="R338" s="2" t="s">
-        <v>31</v>
+      <c r="R338" t="s">
+        <v>28</v>
       </c>
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
@@ -26076,7 +26064,7 @@
       <c r="Q339" s="2">
         <v>3</v>
       </c>
-      <c r="R339" s="2" t="s">
+      <c r="R339" t="s">
         <v>31</v>
       </c>
       <c r="S339" s="2"/>
@@ -26137,8 +26125,8 @@
       <c r="Q340" s="2">
         <v>3</v>
       </c>
-      <c r="R340" s="2" t="s">
-        <v>31</v>
+      <c r="R340" t="s">
+        <v>28</v>
       </c>
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
@@ -26198,7 +26186,7 @@
       <c r="Q341" s="2">
         <v>3</v>
       </c>
-      <c r="R341" s="2" t="s">
+      <c r="R341" t="s">
         <v>31</v>
       </c>
       <c r="S341" s="2"/>
@@ -26259,8 +26247,8 @@
       <c r="Q342" s="2">
         <v>3</v>
       </c>
-      <c r="R342" s="2" t="s">
-        <v>31</v>
+      <c r="R342" t="s">
+        <v>28</v>
       </c>
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
@@ -26320,7 +26308,7 @@
       <c r="Q343" s="2">
         <v>3</v>
       </c>
-      <c r="R343" s="2" t="s">
+      <c r="R343" t="s">
         <v>31</v>
       </c>
       <c r="S343" s="2"/>
@@ -26381,7 +26369,7 @@
       <c r="Q344" s="2">
         <v>3</v>
       </c>
-      <c r="R344" s="2" t="s">
+      <c r="R344" t="s">
         <v>31</v>
       </c>
       <c r="S344" s="2"/>
@@ -26442,7 +26430,7 @@
       <c r="Q345" s="2">
         <v>3</v>
       </c>
-      <c r="R345" s="2" t="s">
+      <c r="R345" t="s">
         <v>31</v>
       </c>
       <c r="S345" s="2"/>
@@ -26503,8 +26491,8 @@
       <c r="Q346" s="2">
         <v>3</v>
       </c>
-      <c r="R346" s="2" t="s">
-        <v>31</v>
+      <c r="R346" t="s">
+        <v>28</v>
       </c>
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
@@ -26564,7 +26552,7 @@
       <c r="Q347" s="2">
         <v>3</v>
       </c>
-      <c r="R347" s="2" t="s">
+      <c r="R347" t="s">
         <v>31</v>
       </c>
       <c r="S347" s="2"/>
@@ -26625,7 +26613,7 @@
       <c r="Q348" s="2">
         <v>3</v>
       </c>
-      <c r="R348" s="2" t="s">
+      <c r="R348" t="s">
         <v>31</v>
       </c>
       <c r="S348" s="2"/>
@@ -26686,7 +26674,7 @@
       <c r="Q349" s="2">
         <v>3</v>
       </c>
-      <c r="R349" s="2" t="s">
+      <c r="R349" t="s">
         <v>31</v>
       </c>
       <c r="S349" s="2"/>
@@ -26747,8 +26735,8 @@
       <c r="Q350" s="2">
         <v>3</v>
       </c>
-      <c r="R350" s="2" t="s">
-        <v>28</v>
+      <c r="R350" t="s">
+        <v>33</v>
       </c>
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
@@ -26808,7 +26796,7 @@
       <c r="Q351" s="2">
         <v>3</v>
       </c>
-      <c r="R351" s="2" t="s">
+      <c r="R351" t="s">
         <v>31</v>
       </c>
       <c r="S351" s="2"/>
@@ -26869,8 +26857,8 @@
       <c r="Q352" s="2">
         <v>3</v>
       </c>
-      <c r="R352" s="2" t="s">
-        <v>28</v>
+      <c r="R352" t="s">
+        <v>33</v>
       </c>
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
@@ -26930,8 +26918,8 @@
       <c r="Q353" s="2">
         <v>3</v>
       </c>
-      <c r="R353" s="2" t="s">
-        <v>28</v>
+      <c r="R353" t="s">
+        <v>33</v>
       </c>
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
@@ -26991,7 +26979,7 @@
       <c r="Q354" s="2">
         <v>3</v>
       </c>
-      <c r="R354" s="2" t="s">
+      <c r="R354" t="s">
         <v>28</v>
       </c>
       <c r="S354" s="2"/>
@@ -27052,8 +27040,8 @@
       <c r="Q355" s="2">
         <v>3</v>
       </c>
-      <c r="R355" s="2" t="s">
-        <v>31</v>
+      <c r="R355" t="s">
+        <v>28</v>
       </c>
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
@@ -27113,7 +27101,7 @@
       <c r="Q356" s="2">
         <v>3</v>
       </c>
-      <c r="R356" s="2" t="s">
+      <c r="R356" t="s">
         <v>31</v>
       </c>
       <c r="S356" s="2"/>
@@ -27174,8 +27162,8 @@
       <c r="Q357" s="2">
         <v>3</v>
       </c>
-      <c r="R357" s="2" t="s">
-        <v>31</v>
+      <c r="R357" t="s">
+        <v>28</v>
       </c>
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
@@ -27235,7 +27223,7 @@
       <c r="Q358" s="2">
         <v>3</v>
       </c>
-      <c r="R358" s="2" t="s">
+      <c r="R358" t="s">
         <v>31</v>
       </c>
       <c r="S358" s="2"/>
@@ -27296,8 +27284,8 @@
       <c r="Q359" s="2">
         <v>3</v>
       </c>
-      <c r="R359" s="2" t="s">
-        <v>28</v>
+      <c r="R359" t="s">
+        <v>33</v>
       </c>
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
@@ -27357,7 +27345,7 @@
       <c r="Q360" s="2">
         <v>3</v>
       </c>
-      <c r="R360" s="2" t="s">
+      <c r="R360" t="s">
         <v>31</v>
       </c>
       <c r="S360" s="2"/>
@@ -27418,7 +27406,7 @@
       <c r="Q361" s="2">
         <v>3</v>
       </c>
-      <c r="R361" s="2" t="s">
+      <c r="R361" t="s">
         <v>31</v>
       </c>
       <c r="S361" s="2"/>
@@ -27479,8 +27467,8 @@
       <c r="Q362" s="2">
         <v>3</v>
       </c>
-      <c r="R362" s="2" t="s">
-        <v>28</v>
+      <c r="R362" t="s">
+        <v>33</v>
       </c>
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
@@ -27540,8 +27528,8 @@
       <c r="Q363" s="2">
         <v>3</v>
       </c>
-      <c r="R363" s="2" t="s">
-        <v>28</v>
+      <c r="R363" t="s">
+        <v>31</v>
       </c>
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
@@ -27601,8 +27589,8 @@
       <c r="Q364" s="2">
         <v>3</v>
       </c>
-      <c r="R364" s="2" t="s">
-        <v>31</v>
+      <c r="R364" t="s">
+        <v>33</v>
       </c>
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
@@ -27662,8 +27650,8 @@
       <c r="Q365" s="2">
         <v>3</v>
       </c>
-      <c r="R365" s="2" t="s">
-        <v>28</v>
+      <c r="R365" t="s">
+        <v>33</v>
       </c>
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
@@ -27723,8 +27711,8 @@
       <c r="Q366" s="2">
         <v>3</v>
       </c>
-      <c r="R366" s="2" t="s">
-        <v>28</v>
+      <c r="R366" t="s">
+        <v>33</v>
       </c>
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
@@ -27784,7 +27772,7 @@
       <c r="Q367" s="2">
         <v>3</v>
       </c>
-      <c r="R367" s="2" t="s">
+      <c r="R367" t="s">
         <v>31</v>
       </c>
       <c r="S367" s="2"/>
@@ -27845,7 +27833,7 @@
       <c r="Q368" s="2">
         <v>3</v>
       </c>
-      <c r="R368" s="2" t="s">
+      <c r="R368" t="s">
         <v>31</v>
       </c>
       <c r="S368" s="2"/>
@@ -27906,7 +27894,7 @@
       <c r="Q369" s="2">
         <v>3</v>
       </c>
-      <c r="R369" s="2" t="s">
+      <c r="R369" t="s">
         <v>31</v>
       </c>
       <c r="S369" s="2"/>
@@ -27967,7 +27955,7 @@
       <c r="Q370" s="2">
         <v>3</v>
       </c>
-      <c r="R370" s="2" t="s">
+      <c r="R370" t="s">
         <v>31</v>
       </c>
       <c r="S370" s="2"/>
@@ -28028,7 +28016,7 @@
       <c r="Q371" s="2">
         <v>3</v>
       </c>
-      <c r="R371" s="2" t="s">
+      <c r="R371" t="s">
         <v>31</v>
       </c>
       <c r="S371" s="2"/>
@@ -28089,7 +28077,7 @@
       <c r="Q372" s="2">
         <v>3</v>
       </c>
-      <c r="R372" s="2" t="s">
+      <c r="R372" t="s">
         <v>31</v>
       </c>
       <c r="S372" s="2"/>
@@ -28150,7 +28138,7 @@
       <c r="Q373" s="2">
         <v>3</v>
       </c>
-      <c r="R373" s="2" t="s">
+      <c r="R373" t="s">
         <v>31</v>
       </c>
       <c r="S373" s="2"/>
@@ -28211,7 +28199,7 @@
       <c r="Q374" s="2">
         <v>3</v>
       </c>
-      <c r="R374" s="2" t="s">
+      <c r="R374" t="s">
         <v>31</v>
       </c>
       <c r="S374" s="2"/>
@@ -28272,7 +28260,7 @@
       <c r="Q375" s="2">
         <v>3</v>
       </c>
-      <c r="R375" s="2" t="s">
+      <c r="R375" t="s">
         <v>31</v>
       </c>
       <c r="S375" s="2"/>
@@ -28333,8 +28321,8 @@
       <c r="Q376" s="2">
         <v>3</v>
       </c>
-      <c r="R376" s="2" t="s">
-        <v>31</v>
+      <c r="R376" t="s">
+        <v>33</v>
       </c>
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
@@ -28394,8 +28382,8 @@
       <c r="Q377" s="2">
         <v>3</v>
       </c>
-      <c r="R377" s="2" t="s">
-        <v>31</v>
+      <c r="R377" t="s">
+        <v>33</v>
       </c>
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
@@ -28455,7 +28443,7 @@
       <c r="Q378" s="2">
         <v>3</v>
       </c>
-      <c r="R378" s="2" t="s">
+      <c r="R378" t="s">
         <v>31</v>
       </c>
       <c r="S378" s="2"/>
@@ -28516,7 +28504,7 @@
       <c r="Q379" s="2">
         <v>3</v>
       </c>
-      <c r="R379" s="2" t="s">
+      <c r="R379" t="s">
         <v>31</v>
       </c>
       <c r="S379" s="2"/>
@@ -28577,8 +28565,8 @@
       <c r="Q380" s="2">
         <v>3</v>
       </c>
-      <c r="R380" s="2" t="s">
-        <v>31</v>
+      <c r="R380" t="s">
+        <v>33</v>
       </c>
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
@@ -28638,8 +28626,8 @@
       <c r="Q381" s="2">
         <v>3</v>
       </c>
-      <c r="R381" s="2" t="s">
-        <v>31</v>
+      <c r="R381" t="s">
+        <v>33</v>
       </c>
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
@@ -28699,7 +28687,7 @@
       <c r="Q382" s="2">
         <v>3</v>
       </c>
-      <c r="R382" s="2" t="s">
+      <c r="R382" t="s">
         <v>31</v>
       </c>
       <c r="S382" s="2"/>
@@ -28760,7 +28748,7 @@
       <c r="Q383" s="2">
         <v>3</v>
       </c>
-      <c r="R383" s="2" t="s">
+      <c r="R383" t="s">
         <v>31</v>
       </c>
       <c r="S383" s="2"/>
@@ -28821,8 +28809,8 @@
       <c r="Q384" s="2">
         <v>3</v>
       </c>
-      <c r="R384" s="2" t="s">
-        <v>31</v>
+      <c r="R384" t="s">
+        <v>33</v>
       </c>
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
@@ -28882,8 +28870,8 @@
       <c r="Q385" s="2">
         <v>3</v>
       </c>
-      <c r="R385" s="2" t="s">
-        <v>31</v>
+      <c r="R385" t="s">
+        <v>33</v>
       </c>
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
@@ -28943,8 +28931,8 @@
       <c r="Q386" s="2">
         <v>3</v>
       </c>
-      <c r="R386" s="2" t="s">
-        <v>31</v>
+      <c r="R386" t="s">
+        <v>33</v>
       </c>
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
@@ -29004,7 +28992,7 @@
       <c r="Q387" s="2">
         <v>3</v>
       </c>
-      <c r="R387" s="2" t="s">
+      <c r="R387" t="s">
         <v>31</v>
       </c>
       <c r="S387" s="2"/>
@@ -29065,8 +29053,8 @@
       <c r="Q388" s="2">
         <v>3</v>
       </c>
-      <c r="R388" s="2" t="s">
-        <v>28</v>
+      <c r="R388" t="s">
+        <v>33</v>
       </c>
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
@@ -29126,8 +29114,8 @@
       <c r="Q389" s="2">
         <v>3</v>
       </c>
-      <c r="R389" s="2" t="s">
-        <v>28</v>
+      <c r="R389" t="s">
+        <v>33</v>
       </c>
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
@@ -29142,6 +29130,7 @@
       <c r="AC389" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC389" xr:uid="{90D3818D-47CE-41E6-8913-CED8EE4E3F8A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>